--- a/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-18,29</t>
+          <t>18,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,72</t>
+          <t>18,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,32%</t>
+          <t>99,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-19,97%</t>
+          <t>217,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,66%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,0%</t>
+          <t>292,8%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 8,24</t>
+          <t>-8,32; 19,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,71; 2,44</t>
+          <t>-1,24; 40,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 20,82</t>
+          <t>-21,88; 31,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,38; -7,03</t>
+          <t>7,58; 29,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 8,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 0,08</t>
+          <t>-55,29; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 33,16</t>
+          <t>-65,67; 285,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,67; -8,46</t>
+          <t>22,61; 1445,72</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,68</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,47</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,3</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,21%</t>
+          <t>175,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,84%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>66,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 10,58</t>
+          <t>-9,48; 7,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,21; -6,42</t>
+          <t>6,74; 24,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,01; -0,69</t>
+          <t>0,58; 18,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -2,64</t>
+          <t>3,07; 17,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 13,25</t>
+          <t>-56,37; 93,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -7,55</t>
+          <t>41,69; 463,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,02; -1,0</t>
+          <t>-0,75; 201,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,37; -3,54</t>
+          <t>12,71; 152,21</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,57</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,63%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>50,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,53; -0,05</t>
+          <t>-0,07; 13,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,2; -2,64</t>
+          <t>2,03; 20,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 2,48</t>
+          <t>-2,4; 12,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,85; -1,91</t>
+          <t>1,86; 13,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; -0,17</t>
+          <t>-1,9; 293,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,62; -3,64</t>
+          <t>6,85; 135,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 2,93</t>
+          <t>-16,46; 133,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -2,49</t>
+          <t>9,6; 118,05</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,81</t>
+          <t>13,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,81</t>
+          <t>14,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,45%</t>
+          <t>229,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,6%</t>
+          <t>136,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -2,13</t>
+          <t>1,77; 14,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -0,51</t>
+          <t>1,5; 25,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,09; -4,97</t>
+          <t>5,35; 24,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 13,83</t>
+          <t>-9,99; 11,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,59; -2,31</t>
+          <t>4,5; 1291,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -1,23</t>
+          <t>1,14; 313,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,19; -6,29</t>
+          <t>34,73; 382,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 17,31</t>
+          <t>-60,17; 116,8</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,31</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,6</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,15</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-12,82%</t>
+          <t>121,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>84,52%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 0,53</t>
+          <t>-0,49; 12,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 3,2</t>
+          <t>-2,85; 12,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -4,33</t>
+          <t>4,02; 18,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,21; -5,06</t>
+          <t>5,32; 15,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 0,55</t>
+          <t>-7,2; 217,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 4,01</t>
+          <t>-15,02; 117,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -4,85</t>
+          <t>30,14; 275,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,0; -6,03</t>
+          <t>36,18; 174,68</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,98</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,41</t>
+          <t>1,82; 8,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,34</t>
+          <t>6,46; 15,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -5,36</t>
+          <t>5,84; 14,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -1,01</t>
+          <t>0,42; 11,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -2,66</t>
+          <t>16,21; 137,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -7,53</t>
+          <t>35,68; 126,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -6,25</t>
+          <t>41,26; 142,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -1,17</t>
+          <t>9,27; 90,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 19,64</t>
+          <t>-8,43; 16,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 40,25</t>
+          <t>-2,49; 40,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 31,48</t>
+          <t>-18,98; 32,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,29; —</t>
+          <t>-73,32; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,67; 285,04</t>
+          <t>-61,45; 293,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 7,05</t>
+          <t>-10,45; 7,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 24,13</t>
+          <t>6,63; 24,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 18,88</t>
+          <t>0,32; 17,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 93,69</t>
+          <t>-59,98; 110,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,69; 463,87</t>
+          <t>42,9; 446,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 201,45</t>
+          <t>0,45; 215,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 13,86</t>
+          <t>-0,02; 14,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 20,62</t>
+          <t>0,88; 21,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 12,78</t>
+          <t>-1,46; 14,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 293,76</t>
+          <t>-9,75; 309,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 135,99</t>
+          <t>2,11; 135,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 133,89</t>
+          <t>-10,42; 136,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 14,94</t>
+          <t>1,94; 15,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 25,68</t>
+          <t>2,45; 25,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 24,77</t>
+          <t>5,44; 25,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 1291,46</t>
+          <t>14,28; 1472,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 313,65</t>
+          <t>8,7; 295,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,73; 382,21</t>
+          <t>22,88; 340,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 12,72</t>
+          <t>-0,3; 13,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 12,59</t>
+          <t>-3,05; 12,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 18,62</t>
+          <t>4,71; 19,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 217,83</t>
+          <t>-4,85; 228,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 117,91</t>
+          <t>-17,97; 121,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,14; 275,36</t>
+          <t>33,41; 306,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,88</t>
+          <t>1,94; 9,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,44</t>
+          <t>6,19; 15,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,84; 14,12</t>
+          <t>5,9; 14,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,21; 137,27</t>
+          <t>18,86; 139,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,68; 126,74</t>
+          <t>36,56; 127,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,26; 142,64</t>
+          <t>42,45; 142,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 16,57</t>
+          <t>-8,24; 20,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 40,57</t>
+          <t>-2,44; 40,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 32,95</t>
+          <t>-20,82; 32,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 29,43</t>
+          <t>7,03; 29,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,32; —</t>
+          <t>-45,3; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 293,62</t>
+          <t>-63,09; 254,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,61; 1445,72</t>
+          <t>35,35; 1336,53</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 7,73</t>
+          <t>-10,58; 6,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 24,42</t>
+          <t>6,42; 24,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 17,85</t>
+          <t>0,69; 19,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 17,56</t>
+          <t>2,64; 16,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 110,32</t>
+          <t>-58,85; 97,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,9; 446,24</t>
+          <t>35,51; 468,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 215,81</t>
+          <t>1,05; 220,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 152,21</t>
+          <t>11,84; 146,24</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 14,93</t>
+          <t>0,05; 14,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 21,08</t>
+          <t>2,64; 22,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 14,04</t>
+          <t>-2,48; 13,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 13,68</t>
+          <t>1,91; 13,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 309,57</t>
+          <t>-0,09; 324,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 135,71</t>
+          <t>7,93; 147,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 136,25</t>
+          <t>-17,32; 143,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 118,05</t>
+          <t>10,04; 112,93</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 15,21</t>
+          <t>2,13; 15,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 25,21</t>
+          <t>0,51; 23,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 25,57</t>
+          <t>4,97; 24,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 11,86</t>
+          <t>-13,83; 11,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 1472,16</t>
+          <t>8,8; 1174,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 295,05</t>
+          <t>-2,32; 284,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,88; 340,34</t>
+          <t>29,32; 364,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,17; 116,8</t>
+          <t>-69,91; 109,85</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 13,43</t>
+          <t>-0,53; 12,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 12,65</t>
+          <t>-3,2; 12,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 19,43</t>
+          <t>4,33; 19,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 15,84</t>
+          <t>5,06; 15,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 228,68</t>
+          <t>-10,53; 208,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 121,95</t>
+          <t>-17,66; 130,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,41; 306,68</t>
+          <t>33,43; 292,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,18; 174,68</t>
+          <t>32,37; 167,6</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,11</t>
+          <t>2,41; 9,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 15,54</t>
+          <t>6,34; 15,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,24</t>
+          <t>5,36; 13,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 11,13</t>
+          <t>1,01; 11,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,86; 139,52</t>
+          <t>23,43; 143,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,56; 127,15</t>
+          <t>35,77; 131,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,45; 142,03</t>
+          <t>38,08; 131,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 90,87</t>
+          <t>8,77; 91,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,29</t>
+          <t>-16,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,72</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>217,79%</t>
+          <t>-17,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>-10,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>292,8%</t>
+          <t>-13,72%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 20,09</t>
+          <t>-7,2; 8,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 40,71</t>
+          <t>-24,47; -7,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 32,37</t>
+          <t>-17,33; -0,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 29,38</t>
+          <t>-17,89; -5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,79; 9,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,3; —</t>
+          <t>-26,07; -8,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,09; 254,2</t>
+          <t>-19,54; -0,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,35; 1336,53</t>
+          <t>-20,2; -7,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-6,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,68</t>
+          <t>-11,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>175,85%</t>
+          <t>-14,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,74%</t>
+          <t>-6,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,04%</t>
+          <t>-9,71%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 6,99</t>
+          <t>-14,53; -0,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 24,21</t>
+          <t>-22,2; -2,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 19,01</t>
+          <t>-13,15; 2,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 16,83</t>
+          <t>-14,17; -2,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,85; 97,88</t>
+          <t>-15,49; -0,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,51; 468,3</t>
+          <t>-26,62; -3,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 220,97</t>
+          <t>-14,66; 2,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,84; 146,24</t>
+          <t>-16,28; -2,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>-13,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>-14,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>85,41%</t>
+          <t>-8,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,26%</t>
+          <t>-16,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>-16,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,56%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 14,53</t>
+          <t>-15,25; -2,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 22,2</t>
+          <t>-23,56; -0,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 13,15</t>
+          <t>-24,09; -4,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 13,85</t>
+          <t>-10,52; 16,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 324,1</t>
+          <t>-15,59; -2,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 147,98</t>
+          <t>-26,43; -1,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 143,42</t>
+          <t>-27,19; -6,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,04; 112,93</t>
+          <t>-11,83; 20,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,81</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,81</t>
+          <t>-11,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>229,04%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>136,98%</t>
+          <t>-12,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>-10,89%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 15,25</t>
+          <t>-12,53; 0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 23,56</t>
+          <t>-12,73; 3,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 24,09</t>
+          <t>-19,04; -4,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 11,14</t>
+          <t>-14,42; -4,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 1174,93</t>
+          <t>-13,43; 0,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 284,63</t>
+          <t>-14,27; 4,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,32; 364,48</t>
+          <t>-20,52; -4,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,91; 109,85</t>
+          <t>-16,06; -5,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>-9,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>121,53%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>-5,95%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 12,53</t>
+          <t>-9,31; -2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,73</t>
+          <t>-15,81; -6,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 19,04</t>
+          <t>-13,81; -5,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 15,21</t>
+          <t>-10,89; 3,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 208,32</t>
+          <t>-9,95; -2,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 130,41</t>
+          <t>-17,81; -7,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,43; 292,67</t>
+          <t>-15,5; -6,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,37; 167,6</t>
+          <t>-12,37; 4,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,52</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,98</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,84</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>69,49%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>73,53%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>82,99%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>55,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 9,31</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,34; 15,81</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 13,81</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 11,25</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>23,43; 143,14</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>35,77; 131,4</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>38,08; 131,32</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>8,77; 91,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 8,04</t>
+          <t>-6,82; 7,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,47; -7,74</t>
+          <t>-24,87; -7,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,33; -0,28</t>
+          <t>-17,94; 0,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -5,7</t>
+          <t>-18,03; -5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 9,46</t>
+          <t>-7,35; 8,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,07; -8,63</t>
+          <t>-27,26; -8,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,54; -0,44</t>
+          <t>-20,24; 0,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,2; -7,03</t>
+          <t>-20,08; -6,75</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,53; -0,05</t>
+          <t>-14,11; 0,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,2; -2,64</t>
+          <t>-21,77; -2,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 2,48</t>
+          <t>-13,81; 1,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -2,38</t>
+          <t>-14,04; -1,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,49; -0,17</t>
+          <t>-14,91; 0,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,62; -3,64</t>
+          <t>-25,9; -3,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 2,93</t>
+          <t>-15,29; 2,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -2,99</t>
+          <t>-16,1; -2,05</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -2,13</t>
+          <t>-14,73; -1,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -0,51</t>
+          <t>-25,07; -1,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,09; -4,97</t>
+          <t>-25,36; -5,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 16,46</t>
+          <t>-10,9; 14,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,59; -2,31</t>
+          <t>-14,98; -2,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -1,23</t>
+          <t>-27,49; -1,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,19; -6,29</t>
+          <t>-27,51; -6,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 20,57</t>
+          <t>-12,21; 18,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 0,53</t>
+          <t>-13,56; 0,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 3,2</t>
+          <t>-12,79; 3,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -4,33</t>
+          <t>-19,39; -4,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -4,66</t>
+          <t>-14,36; -4,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 0,55</t>
+          <t>-14,37; 0,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 4,01</t>
+          <t>-14,27; 4,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -4,85</t>
+          <t>-21,05; -4,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -5,51</t>
+          <t>-16,0; -5,2</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,41</t>
+          <t>-9,12; -2,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,34</t>
+          <t>-15,71; -5,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -5,36</t>
+          <t>-14,35; -5,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 3,48</t>
+          <t>-10,76; 3,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -2,66</t>
+          <t>-9,75; -2,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -7,53</t>
+          <t>-17,86; -7,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -6,25</t>
+          <t>-16,09; -6,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 4,07</t>
+          <t>-12,32; 3,89</t>
         </is>
       </c>
     </row>
